--- a/backend/table64.xlsx
+++ b/backend/table64.xlsx
@@ -13,10 +13,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Всероссийский</t>
+    <t>Региональный</t>
   </si>
   <si>
-    <t>р</t>
+    <t>Привет</t>
   </si>
   <si>
     <t>1</t>
